--- a/biology/Zoologie/Catharesthes_elegans/Catharesthes_elegans.xlsx
+++ b/biology/Zoologie/Catharesthes_elegans/Catharesthes_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catharestes
 Catharesthes elegans, unique représentant du genre Catharesthes, est une espèce de coléoptères de la famille des Cerambycidae et qui se rencontre au Guatemala.
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Catharesthes elegans Bates, 1881[1].
-Catharesthes elegans a pour synonyme[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Catharesthes elegans Bates, 1881.
+Catharesthes elegans a pour synonyme :
 Catharestes elegans Aurivillius, 1923</t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) H.W. Bates, 1881, « Longicornes. Cerambycidae, Lamiidae », Biologia Centrali-Americana, vol. 5, Insecta, Coleoptera, p. 153–224, 4 pl. lire en ligne.</t>
         </is>
